--- a/MonserData.xlsx
+++ b/MonserData.xlsx
@@ -1,20 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Private\MyCreative\CreateNow\RPGCreate_Local\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A54FBC-C1B5-4569-AD75-E64654E2F26D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CF129F8-2EDE-4B5E-AD31-3B35EDB284E1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5184" xr2:uid="{D3019651-DDB2-423F-93DE-4738A46E5C53}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5184" activeTab="3" xr2:uid="{D3019651-DDB2-423F-93DE-4738A46E5C53}"/>
   </bookViews>
   <sheets>
     <sheet name="MonsterData" sheetId="1" r:id="rId1"/>
-    <sheet name="memo" sheetId="3" r:id="rId2"/>
+    <sheet name="JobData" sheetId="4" r:id="rId2"/>
+    <sheet name="MapData" sheetId="10" r:id="rId3"/>
+    <sheet name="EnlargementData" sheetId="12" r:id="rId4"/>
+    <sheet name="SpecoesData" sheetId="5" r:id="rId5"/>
+    <sheet name="SkillData" sheetId="6" r:id="rId6"/>
+    <sheet name="ItemData" sheetId="7" r:id="rId7"/>
+    <sheet name="TechniqueData" sheetId="8" r:id="rId8"/>
+    <sheet name="CharacterData" sheetId="9" r:id="rId9"/>
+    <sheet name="memo" sheetId="3" r:id="rId10"/>
+    <sheet name="ShoopItemData" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
   <si>
     <t>スライム</t>
     <phoneticPr fontId="1"/>
@@ -163,6 +172,1971 @@
   </si>
   <si>
     <t>ブラックスパイダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無職</t>
+    <rPh sb="0" eb="2">
+      <t>ムショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い剣士</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケンシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い弓使い</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユミツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い魔導士</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>マドウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い戦士</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い商人</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い鍛冶士</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カジ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い薬剤士</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ヤクザイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見習い料理人</t>
+    <rPh sb="0" eb="2">
+      <t>ミナラ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>リョウリニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>旅人</t>
+    <rPh sb="0" eb="2">
+      <t>タビビト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>人間</t>
+    <rPh sb="0" eb="2">
+      <t>ニンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エルフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドワーフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロボット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダークエルフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェアリー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーウルフ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ワーキャット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドラゴニュート</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔人</t>
+    <rPh sb="0" eb="2">
+      <t>マジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mdp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dex</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Res</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>App</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>siz</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣術</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経理学</t>
+    <rPh sb="0" eb="3">
+      <t>ケイリガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鍛冶</t>
+    <rPh sb="0" eb="2">
+      <t>カジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>料理</t>
+    <rPh sb="0" eb="2">
+      <t>リョウリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大剣術</t>
+    <rPh sb="0" eb="3">
+      <t>タイケンジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>短剣術</t>
+    <rPh sb="0" eb="1">
+      <t>タン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小剣術</t>
+    <rPh sb="0" eb="1">
+      <t>ショウ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>双剣術</t>
+    <rPh sb="0" eb="3">
+      <t>ソウケンジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>細剣術</t>
+    <rPh sb="0" eb="2">
+      <t>ホソケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲剣術</t>
+    <rPh sb="0" eb="2">
+      <t>キョクケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長剣術</t>
+    <rPh sb="0" eb="1">
+      <t>ナガ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>両手剣術</t>
+    <rPh sb="0" eb="2">
+      <t>リョウテ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>片手剣術</t>
+    <rPh sb="0" eb="3">
+      <t>カタテケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔剣術</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖剣術</t>
+    <rPh sb="0" eb="2">
+      <t>セイケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神剣術</t>
+    <rPh sb="0" eb="2">
+      <t>シンケン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣聖術</t>
+    <rPh sb="0" eb="2">
+      <t>ケンセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣王術</t>
+    <rPh sb="0" eb="2">
+      <t>ケンオウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>剣神術</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ジン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風魔法</t>
+    <rPh sb="0" eb="3">
+      <t>カゼマホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土魔法</t>
+    <rPh sb="0" eb="3">
+      <t>ツチマホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>闇魔法</t>
+    <rPh sb="0" eb="3">
+      <t>ヤミマホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ウミ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>嵐魔法</t>
+    <rPh sb="0" eb="1">
+      <t>アラシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>結魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ケツ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>無魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖魔法</t>
+    <rPh sb="0" eb="1">
+      <t>セイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影魔法</t>
+    <rPh sb="0" eb="1">
+      <t>カゲ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焔魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ホムラ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>天魔法</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>空魔法</t>
+    <rPh sb="0" eb="1">
+      <t>クウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>星魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ホシ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陽魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>陰魔法</t>
+    <rPh sb="0" eb="3">
+      <t>インマホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重魔法</t>
+    <rPh sb="0" eb="1">
+      <t>ジュウ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>腕力強化</t>
+    <rPh sb="0" eb="2">
+      <t>ワンリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>視力強化</t>
+    <rPh sb="0" eb="2">
+      <t>シリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脚力強化</t>
+    <rPh sb="0" eb="4">
+      <t>キャクリョクキョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聴覚強化</t>
+    <rPh sb="0" eb="2">
+      <t>チョウカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キョウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>目星</t>
+    <rPh sb="0" eb="2">
+      <t>メボシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調合</t>
+    <rPh sb="0" eb="2">
+      <t>チョウゴウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>錬金術</t>
+    <rPh sb="0" eb="2">
+      <t>レンキン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木工</t>
+    <rPh sb="0" eb="2">
+      <t>モッコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉱物学</t>
+    <rPh sb="0" eb="3">
+      <t>コウブツガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>植物学</t>
+    <rPh sb="0" eb="2">
+      <t>ショクブツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒物学</t>
+    <rPh sb="0" eb="2">
+      <t>ドクブツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬草学</t>
+    <rPh sb="0" eb="3">
+      <t>ヤクソウガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製薬術</t>
+    <rPh sb="0" eb="2">
+      <t>セイヤク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔物学</t>
+    <rPh sb="0" eb="2">
+      <t>マモノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ガク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毒耐性</t>
+    <rPh sb="0" eb="3">
+      <t>ドクタイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>麻痺耐性</t>
+    <rPh sb="0" eb="2">
+      <t>マヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>眠気耐性</t>
+    <rPh sb="0" eb="2">
+      <t>ネムケ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魅了耐性</t>
+    <rPh sb="0" eb="2">
+      <t>ミリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幻覚耐性</t>
+    <rPh sb="0" eb="2">
+      <t>ゲンカク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>タイセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>威圧</t>
+    <rPh sb="0" eb="2">
+      <t>イアツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隠密</t>
+    <rPh sb="0" eb="2">
+      <t>オンミツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魅了</t>
+    <rPh sb="0" eb="2">
+      <t>ミリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪臭</t>
+    <rPh sb="0" eb="2">
+      <t>アクシュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>熱風</t>
+    <rPh sb="0" eb="2">
+      <t>ネップウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>櫂の木材</t>
+    <rPh sb="0" eb="1">
+      <t>カイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>モクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白樺の木材</t>
+    <rPh sb="0" eb="2">
+      <t>シラカバ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>モクザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒し草</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>痛み草</t>
+    <rPh sb="0" eb="1">
+      <t>イタ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <rPh sb="0" eb="2">
+      <t>ダイコン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>桃</t>
+    <rPh sb="0" eb="1">
+      <t>モモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林檎</t>
+    <rPh sb="0" eb="2">
+      <t>リンゴ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薔薇</t>
+    <rPh sb="0" eb="2">
+      <t>バラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>百合</t>
+    <rPh sb="0" eb="2">
+      <t>ユリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じゃが芋</t>
+    <rPh sb="3" eb="4">
+      <t>イモ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <rPh sb="0" eb="2">
+      <t>コムギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大麦</t>
+    <rPh sb="0" eb="2">
+      <t>オオムギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>椎茸</t>
+    <rPh sb="0" eb="2">
+      <t>シイタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>松茸</t>
+    <rPh sb="0" eb="2">
+      <t>マツタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鱈</t>
+    <rPh sb="0" eb="1">
+      <t>タラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>秋刀魚</t>
+    <rPh sb="0" eb="3">
+      <t>サンマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蚊</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蛙</t>
+    <rPh sb="0" eb="1">
+      <t>カエル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鹿</t>
+    <rPh sb="0" eb="1">
+      <t>シカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>兎</t>
+    <rPh sb="0" eb="1">
+      <t>ウサギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一反木綿</t>
+    <rPh sb="0" eb="4">
+      <t>イッタンモメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小豆洗い</t>
+    <rPh sb="0" eb="3">
+      <t>アズキアラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アヴァリバ帝国試作機001偵察機</t>
+    <rPh sb="5" eb="7">
+      <t>テイコク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>シサク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>テイサツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MH_E389_狂神</t>
+    <rPh sb="8" eb="9">
+      <t>クル</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>カミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヴァチュガ人</t>
+    <rPh sb="5" eb="6">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鷲壱人</t>
+    <rPh sb="0" eb="1">
+      <t>ワシ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>イチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ジン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コボルト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タロス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アジ・ダハーカ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>今日は楽しいクリスマス</t>
+    <rPh sb="0" eb="2">
+      <t>キョウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>タノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>彫刻-オリジナル</t>
+    <rPh sb="0" eb="2">
+      <t>チョウコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄鉱石</t>
+    <rPh sb="0" eb="3">
+      <t>テッコウセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>砂</t>
+    <rPh sb="0" eb="1">
+      <t>スナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の延べ棒</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銅の延べ棒</t>
+    <rPh sb="0" eb="1">
+      <t>ドウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ルビー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダイヤモンド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鋼</t>
+    <rPh sb="0" eb="1">
+      <t>ハガネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チタン合金</t>
+    <rPh sb="3" eb="5">
+      <t>ゴウキン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の剣</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツルギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>白樺の杖</t>
+    <rPh sb="0" eb="2">
+      <t>シラカバ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>皮の鎧</t>
+    <rPh sb="0" eb="1">
+      <t>カワ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨロイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉢巻き</t>
+    <rPh sb="0" eb="2">
+      <t>ハチマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>癒しの指輪</t>
+    <rPh sb="0" eb="1">
+      <t>イヤ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ユビワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>耐麻痺のピアス</t>
+    <rPh sb="0" eb="1">
+      <t>タイ</t>
+    </rPh>
+    <rPh sb="1" eb="3">
+      <t>マヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄のツルハシ</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄の斧</t>
+    <rPh sb="0" eb="1">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サラダ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焼き魚</t>
+    <rPh sb="0" eb="1">
+      <t>ヤ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サカナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復薬</t>
+    <rPh sb="0" eb="3">
+      <t>カイフクヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強化薬(腕)</t>
+    <rPh sb="0" eb="2">
+      <t>キョウカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ウデ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の扉</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>トビラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>木の椅子</t>
+    <rPh sb="0" eb="1">
+      <t>キ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>正拳突き</t>
+    <rPh sb="0" eb="3">
+      <t>セイケンヅ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>応急処置</t>
+    <rPh sb="0" eb="4">
+      <t>オウキュウショチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>強固</t>
+    <rPh sb="0" eb="2">
+      <t>キョウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不気味な踊り</t>
+    <rPh sb="0" eb="3">
+      <t>ブキミ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>オド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の玉</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水の癒し</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>イヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>土の壁</t>
+    <rPh sb="0" eb="1">
+      <t>ツチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カベ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>風の檻</t>
+    <rPh sb="0" eb="1">
+      <t>カゼ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>オリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>光の導き</t>
+    <rPh sb="0" eb="1">
+      <t>ヒカリ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミチビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カルミア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マルク</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キャローナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>map</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mdp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sp</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>luc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>des</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>res</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>app</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>マイホーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの都市</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>倉庫</t>
+    <rPh sb="0" eb="2">
+      <t>ソウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険</t>
+    <rPh sb="0" eb="2">
+      <t>ボウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探索</t>
+    <rPh sb="0" eb="2">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神殿</t>
+    <rPh sb="0" eb="2">
+      <t>シンデン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>拡張</t>
+    <rPh sb="0" eb="2">
+      <t>カクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>買い物</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>モノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書館</t>
+    <rPh sb="0" eb="3">
+      <t>トショカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>会話</t>
+    <rPh sb="0" eb="2">
+      <t>カイワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>武器屋</t>
+    <rPh sb="0" eb="3">
+      <t>ブキヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防具屋</t>
+    <rPh sb="0" eb="3">
+      <t>ボウグヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道具屋</t>
+    <rPh sb="0" eb="3">
+      <t>ドウグヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>薬屋</t>
+    <rPh sb="0" eb="2">
+      <t>クスリヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転職</t>
+    <rPh sb="0" eb="2">
+      <t>テンショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>本</t>
+    <rPh sb="0" eb="1">
+      <t>ホン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コレクション</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの森</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森狼の巣</t>
+    <rPh sb="0" eb="2">
+      <t>モリオオカミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼の村</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賢猿の森</t>
+    <rPh sb="0" eb="1">
+      <t>カシコ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの平原</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヘイゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの森1</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの森2</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの森3</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>始まりの森　深部</t>
+    <rPh sb="0" eb="1">
+      <t>ハジ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>野狼の巡回区</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>ロウ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ジュンカイク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>牙狼の支配区</t>
+    <rPh sb="0" eb="1">
+      <t>キバ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オオカミ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シハイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森狼の巣1</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森狼の巣2</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>森狼の巣　深部</t>
+    <rPh sb="0" eb="1">
+      <t>モリ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>オオカミ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シンブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼の村1</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼の村2</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ムラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼の村長宅</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソンチョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>タク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼の見張り台</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ミハ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小鬼の巡回区</t>
+    <rPh sb="0" eb="2">
+      <t>コオニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュンカイ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検眼の猿出現区</t>
+    <rPh sb="0" eb="2">
+      <t>ケンガン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>調薬の猿出現区</t>
+    <rPh sb="0" eb="2">
+      <t>チョウヤク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>知見の猿出現区</t>
+    <rPh sb="0" eb="2">
+      <t>チケン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脳筋の猿出現区</t>
+    <rPh sb="0" eb="2">
+      <t>ノウキン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>サル</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>シュツゲンク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賢猿の住処</t>
+    <rPh sb="0" eb="1">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>スミカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蟲毒の壺</t>
+    <rPh sb="0" eb="2">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蟲毒の壺1</t>
+    <rPh sb="0" eb="2">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蟲毒の壺2</t>
+    <rPh sb="0" eb="2">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蟲毒の壺3</t>
+    <rPh sb="0" eb="2">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蟲毒の壺4</t>
+    <rPh sb="0" eb="2">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蟲毒の壺5</t>
+    <rPh sb="0" eb="2">
+      <t>コドク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツボ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2_4_5_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>6_7_8_9_10_11_3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>0_1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>19_20_21_22_23</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>12_13_14_15</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>17_18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>24_25_26_27_28</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>29_30_31_32_33</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>34_35_36_37_38</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>39_40_41_42_43</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>44_45_46_47_48</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>49_50_51</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>StatusPanel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>EnlargementPanel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Kalmia</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Maalucu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cyaro</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectPanel</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SelectPanel_MyMoneyTextBox</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_0_0_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_0_1_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_1_0_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_1_1_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_2_0_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_2_1_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_3_0_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3_3_1_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_1_1_0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>4_1_0_0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -529,8 +2503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B433DA1-DB09-40DD-A1A7-195061BF9110}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -1492,7 +3466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C391CE88-DCA6-4DCC-B7D3-6EE82D0F64AF}">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1546,4 +3520,4145 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BE6B17D-AC24-4925-962D-D919EA09BF52}">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>280</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7EC4541-67B2-4EA9-BA68-4C637A1E03E2}">
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11:N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="F1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="I1">
+        <v>0</v>
+      </c>
+      <c r="J1">
+        <v>0</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>0</v>
+      </c>
+      <c r="M1">
+        <v>10</v>
+      </c>
+      <c r="N1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>10</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>10</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>10</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>10</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>10</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>10</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>10</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>10</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>10</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>10</v>
+      </c>
+      <c r="L9">
+        <v>10</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>10</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>192</v>
+      </c>
+      <c r="E11" t="s">
+        <v>193</v>
+      </c>
+      <c r="F11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G11" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" t="s">
+        <v>196</v>
+      </c>
+      <c r="I11" t="s">
+        <v>197</v>
+      </c>
+      <c r="J11" t="s">
+        <v>198</v>
+      </c>
+      <c r="K11" t="s">
+        <v>199</v>
+      </c>
+      <c r="L11" t="s">
+        <v>200</v>
+      </c>
+      <c r="M11" t="s">
+        <v>201</v>
+      </c>
+      <c r="N11" t="s">
+        <v>202</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D969535-0A7E-48ED-A8CA-34F07DA278AE}">
+  <dimension ref="A1:E52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="8.3984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>252</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>204</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>205</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>210</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>206</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>270</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>207</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>255</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>208</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>212</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>256</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>16</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>214</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>263</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>215</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>271</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>271</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>218</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>271</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>219</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>270</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>220</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>270</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>270</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>223</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" t="s">
+        <v>259</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>224</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>225</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23" t="s">
+        <v>261</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>246</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24" t="s">
+        <v>262</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>226</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>266</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>227</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>266</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>228</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>266</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>229</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>266</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>230</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>266</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>231</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>266</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>232</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>266</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>233</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>234</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" t="s">
+        <v>266</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>235</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>266</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>240</v>
+      </c>
+      <c r="C35">
+        <v>3</v>
+      </c>
+      <c r="D35" t="s">
+        <v>266</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>239</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>266</v>
+      </c>
+      <c r="E36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>236</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>266</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>237</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>266</v>
+      </c>
+      <c r="E38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>238</v>
+      </c>
+      <c r="C39">
+        <v>3</v>
+      </c>
+      <c r="D39" t="s">
+        <v>266</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>241</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>266</v>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>242</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>266</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42">
+        <v>3</v>
+      </c>
+      <c r="D42" t="s">
+        <v>266</v>
+      </c>
+      <c r="E42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>244</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>266</v>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>245</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>266</v>
+      </c>
+      <c r="E44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>247</v>
+      </c>
+      <c r="C45">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>266</v>
+      </c>
+      <c r="E45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>248</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>266</v>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>249</v>
+      </c>
+      <c r="C47">
+        <v>3</v>
+      </c>
+      <c r="D47" t="s">
+        <v>266</v>
+      </c>
+      <c r="E47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>250</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>266</v>
+      </c>
+      <c r="E48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>251</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>266</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>189</v>
+      </c>
+      <c r="C50">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>267</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>190</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>268</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>191</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>269</v>
+      </c>
+      <c r="E52">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0602211A-46C8-4DCE-9D70-0621EE1B4727}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>50000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{311E991F-65FE-4270-B4AE-584A65D13654}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>13</v>
+      </c>
+      <c r="E1">
+        <v>14</v>
+      </c>
+      <c r="F1">
+        <v>13</v>
+      </c>
+      <c r="G1">
+        <v>13</v>
+      </c>
+      <c r="H1">
+        <v>13</v>
+      </c>
+      <c r="I1">
+        <v>13</v>
+      </c>
+      <c r="J1">
+        <v>13</v>
+      </c>
+      <c r="K1">
+        <v>21</v>
+      </c>
+      <c r="L1">
+        <v>20</v>
+      </c>
+      <c r="M1">
+        <v>14</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>8</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>20</v>
+      </c>
+      <c r="I2">
+        <v>17</v>
+      </c>
+      <c r="J2">
+        <v>18</v>
+      </c>
+      <c r="K2">
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <v>15</v>
+      </c>
+      <c r="M2">
+        <v>13</v>
+      </c>
+      <c r="N2">
+        <v>18</v>
+      </c>
+      <c r="O2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>13</v>
+      </c>
+      <c r="F3">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>20</v>
+      </c>
+      <c r="H3">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <v>15</v>
+      </c>
+      <c r="L3">
+        <v>28</v>
+      </c>
+      <c r="M3">
+        <v>13</v>
+      </c>
+      <c r="N3">
+        <v>10</v>
+      </c>
+      <c r="O3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>28</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>28</v>
+      </c>
+      <c r="H4">
+        <v>4</v>
+      </c>
+      <c r="I4">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <v>4</v>
+      </c>
+      <c r="K4">
+        <v>15</v>
+      </c>
+      <c r="L4">
+        <v>15</v>
+      </c>
+      <c r="M4">
+        <v>10</v>
+      </c>
+      <c r="N4">
+        <v>13</v>
+      </c>
+      <c r="O4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>13</v>
+      </c>
+      <c r="F5">
+        <v>10</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+      <c r="H5">
+        <v>18</v>
+      </c>
+      <c r="I5">
+        <v>13</v>
+      </c>
+      <c r="J5">
+        <v>15</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5">
+        <v>28</v>
+      </c>
+      <c r="N5">
+        <v>18</v>
+      </c>
+      <c r="O5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>24</v>
+      </c>
+      <c r="I6">
+        <v>24</v>
+      </c>
+      <c r="J6">
+        <v>14</v>
+      </c>
+      <c r="K6">
+        <v>15</v>
+      </c>
+      <c r="L6">
+        <v>10</v>
+      </c>
+      <c r="M6">
+        <v>24</v>
+      </c>
+      <c r="N6">
+        <v>13</v>
+      </c>
+      <c r="O6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
+        <v>28</v>
+      </c>
+      <c r="G7">
+        <v>23</v>
+      </c>
+      <c r="H7">
+        <v>10</v>
+      </c>
+      <c r="I7">
+        <v>10</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="L7">
+        <v>8</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>10</v>
+      </c>
+      <c r="O7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>18</v>
+      </c>
+      <c r="F8">
+        <v>21</v>
+      </c>
+      <c r="G8">
+        <v>18</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>13</v>
+      </c>
+      <c r="J8">
+        <v>28</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+      <c r="L8">
+        <v>8</v>
+      </c>
+      <c r="M8">
+        <v>8</v>
+      </c>
+      <c r="N8">
+        <v>10</v>
+      </c>
+      <c r="O8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>13</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>25</v>
+      </c>
+      <c r="H9">
+        <v>28</v>
+      </c>
+      <c r="I9">
+        <v>10</v>
+      </c>
+      <c r="J9">
+        <v>14</v>
+      </c>
+      <c r="K9">
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <v>4</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>20</v>
+      </c>
+      <c r="O9">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>15</v>
+      </c>
+      <c r="G10">
+        <v>15</v>
+      </c>
+      <c r="H10">
+        <v>15</v>
+      </c>
+      <c r="I10">
+        <v>15</v>
+      </c>
+      <c r="J10">
+        <v>14</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>4</v>
+      </c>
+      <c r="M10">
+        <v>28</v>
+      </c>
+      <c r="N10">
+        <v>18</v>
+      </c>
+      <c r="O10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" t="s">
+        <v>52</v>
+      </c>
+      <c r="G11" t="s">
+        <v>53</v>
+      </c>
+      <c r="H11" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" t="s">
+        <v>57</v>
+      </c>
+      <c r="L11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" t="s">
+        <v>60</v>
+      </c>
+      <c r="O11" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDB9284B-913B-4EBC-B76A-3B7C59257029}">
+  <dimension ref="A1:D64"/>
+  <sheetViews>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>6</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>7</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>8</v>
+      </c>
+      <c r="D25" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>9</v>
+      </c>
+      <c r="D26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>11</v>
+      </c>
+      <c r="D28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>13</v>
+      </c>
+      <c r="D30" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>14</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>15</v>
+      </c>
+      <c r="D32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>16</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>2</v>
+      </c>
+      <c r="D40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>3</v>
+      </c>
+      <c r="D41" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+      <c r="C48">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>0</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>0</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>0</v>
+      </c>
+      <c r="C53">
+        <v>4</v>
+      </c>
+      <c r="D53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>0</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55">
+        <v>5</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
+      </c>
+      <c r="D55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56">
+        <v>5</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A57">
+        <v>5</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A58">
+        <v>5</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A59">
+        <v>5</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60">
+        <v>6</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61">
+        <v>6</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62">
+        <v>6</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A63">
+        <v>6</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>3</v>
+      </c>
+      <c r="D63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>4</v>
+      </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADCC3EBE-8A84-4C3B-9A54-6998874EEB36}">
+  <dimension ref="A1:E54"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51:E52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>0</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>5</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>6</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <v>1</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>5</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>5</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>6</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>7</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>8</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33">
+        <v>2</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>2</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35">
+        <v>2</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A36">
+        <v>2</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A38">
+        <v>2</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A41">
+        <v>3</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+      <c r="C41">
+        <v>0</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>3</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A44">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A45">
+        <v>3</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>3</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A48">
+        <v>3</v>
+      </c>
+      <c r="B48">
+        <v>3</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A49">
+        <v>4</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A50">
+        <v>4</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A51">
+        <v>4</v>
+      </c>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A52">
+        <v>4</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A53">
+        <v>4</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A54">
+        <v>4</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E376EFC5-324D-43B7-A60C-46F18749DE0F}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>1</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>1</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10" t="s">
+        <v>188</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F638D00-F5E6-4390-AB44-F391B92615C2}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>